--- a/tarea 01/bases-calculo.xlsx
+++ b/tarea 01/bases-calculo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{62FDBCD5-E467-4712-A79E-2BE3182723E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{332ACE09-1828-4C25-9F73-C5E0C7D652AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corte basal" sheetId="1" r:id="rId1"/>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="B8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,6 +705,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
+        <v>417925</v>
+      </c>
       <c r="E5" s="4">
         <f>AVERAGE(E3:E4)/1000</f>
         <v>410.4</v>
@@ -1081,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC86346D-3CA2-4C76-A9CD-17B13CBE2CC4}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
